--- a/results/I3_N5_M2_T30_C200_DepCentral_s1_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>421.4280850068299</v>
+        <v>176.9522812893066</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.70808500682834</v>
+        <v>32.95228128930657</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.896780430097274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.896780430097274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.65000000000151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>304.0699999999999</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -890,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.60181147454999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.2163689211052</v>
+        <v>22.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -914,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.72026482307932</v>
+        <v>23.91429431698742</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.95831999634839</v>
+        <v>27.23104729676617</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>121.7200000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1104,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>117.2400000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1115,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>122.4650000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1126,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>118.4450000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1137,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>116.3100000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1148,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.43999999999971</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1159,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53499999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1170,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.36999999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1181,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81499999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1192,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83499999999971</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1203,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>125.495</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -1214,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>121.635</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
@@ -1225,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>109.3699999999995</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
@@ -1236,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>122.055</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -1247,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>123.5549999999988</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -1258,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>201.3850000000005</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
@@ -1269,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>197.3250000000005</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
@@ -1280,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>189.57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
@@ -1291,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>202.3100000000005</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
@@ -1302,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>199.1199999999994</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -1313,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>210.735</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1324,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>202.96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -1335,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>207.1300000000006</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -1346,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>208.0699999999997</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1357,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>209.7350000000007</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -1368,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>210.735</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1379,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>202.96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -1390,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>207.1300000000006</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -1401,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>208.0699999999997</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -1412,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>209.7350000000007</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -1423,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>201.3850000000005</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38">
@@ -1434,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>197.3250000000005</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39">
@@ -1445,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>189.57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
@@ -1456,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>202.3100000000005</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41">
@@ -1467,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>199.1199999999994</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1525,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1536,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1547,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.069999999999682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1558,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.734999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1569,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.385000000000531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1602,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>2.310000000000542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1660,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1671,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1682,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1693,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1704,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1715,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1726,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1737,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1748,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1759,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1770,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1781,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1792,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1803,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1814,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1880,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1891,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1902,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1913,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1924,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1963,83 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
